--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorAdministrativo}
 </t>
   </si>
   <si>
@@ -1674,7 +1674,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorAdministrativo}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorAdministrativoLE}
 </t>
   </si>
   <si>
@@ -1674,7 +1674,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.5859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>Cuando el Bundle fue hecho</t>
+    <t>Cuando el Bundle fue armado</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1130,7 +1130,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>
@@ -1810,7 +1810,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.13671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7980,13 +7980,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -11604,13 +11604,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -15228,13 +15228,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -18852,13 +18852,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -22476,13 +22476,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleTerminarLE.xlsx
+++ b/StructureDefinition-BundleTerminarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
